--- a/QuestionsProperties.xlsx
+++ b/QuestionsProperties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Labs\SurveyExtensions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DC67FB5-147E-43AF-9334-5490B79FBD68}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95217F3B-23F8-4C4E-853E-41CE34928F8C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3FC02CB1-5035-4634-8266-8CE3807378AF}"/>
   </bookViews>
@@ -595,32 +595,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60900209-9234-47E5-9C3A-8EDFEA744252}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A2:Y53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="A7" sqref="A7:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="3.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" style="1" customWidth="1"/>
     <col min="19" max="25" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -722,7 +723,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -772,7 +773,7 @@
         <v>1</v>
       </c>
       <c r="Q4" s="3">
-        <f t="shared" ref="Q4:Q53" si="0">SUM(B4:P4)</f>
+        <f t="shared" ref="Q4:Q52" si="0">SUM(B4:P4)</f>
         <v>15</v>
       </c>
       <c r="R4" s="3" t="b">
@@ -780,7 +781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -834,7 +835,7 @@
         <v>15</v>
       </c>
       <c r="R5" s="3" t="b">
-        <f t="shared" ref="R5:R53" si="1">Q5=$Q$2</f>
+        <f t="shared" ref="R5:R52" si="1">Q5=$Q$2</f>
         <v>1</v>
       </c>
     </row>
@@ -945,7 +946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1830,13 +1831,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:R53" xr:uid="{998BC684-8CF0-4DF1-9BBA-B3AA99CAF7B5}"/>
+  <autoFilter ref="A3:R53" xr:uid="{0F825102-4981-4270-B6B2-C10D5FB06E26}">
+    <filterColumn colId="17">
+      <filters>
+        <filter val="FALSO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>